--- a/AWSテンプレートパラメータ一覧.xlsx
+++ b/AWSテンプレートパラメータ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaname/Git/aws-web-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3FE8B7-9827-764A-BE98-3DC92B190717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3DEDA-ABCD-2647-BAAB-C080DDEE19B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="1500" windowWidth="28360" windowHeight="17440" activeTab="1" xr2:uid="{5361B62B-196A-BA43-8E79-E9C87F00E736}"/>
+    <workbookView xWindow="2620" yWindow="1500" windowWidth="28360" windowHeight="17440" xr2:uid="{5361B62B-196A-BA43-8E79-E9C87F00E736}"/>
   </bookViews>
   <sheets>
     <sheet name="ネットワークテンプレート" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>VPC</t>
     <phoneticPr fontId="1"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>template-vpc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10.0.0.0/16</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -79,19 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Nameタグに設定する識別名</t>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シキベｔウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IPv4の割り当て範囲</t>
     <rPh sb="5" eb="6">
       <t>ワｒイ</t>
@@ -102,10 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Subnet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カｔア</t>
@@ -117,48 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リソース名命名規則</t>
-    <rPh sb="5" eb="7">
-      <t>メイメイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キｓオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システム名-リソース名（-識別子）の構成で命名する</t>
-    <rPh sb="13" eb="16">
-      <t>シキベｔウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>メイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例)</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">レイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>template-subnet-private1c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>template-internet-gw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>template-nat-gw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VPC ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -168,14 +105,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>template-subnet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ap-northeast-1a</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -197,13 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用するアベイラビリティゾーン</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Nameタグに設定する識別子</t>
     <rPh sb="7" eb="9">
       <t>セッテイ</t>
@@ -277,10 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>template-eip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tempalte-rtb</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -307,6 +225,140 @@
   </si>
   <si>
     <t>セキュリティグループ（ネットワーク用）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディフォルト値</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CidrBlock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VpcId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPC名は${System}-vpcとなる</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AvailabilityZoneNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用するアベイラビリティゾーン番号</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ｍエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名を入れる</t>
+    <rPh sb="0" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イｒエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subnet名は${System}-subnet-${Function}-${AvailabilityZoneNo}
+RootTable名は${System}-rtb-${Function}-${AvailabilityZoneNo}</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PublicSubnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nameは${System}-igw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${System}-eip</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -360,12 +412,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,410 +739,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08661CF6-308E-274A-A750-6564D9ED6300}">
-  <dimension ref="B2:F55"/>
+  <dimension ref="B9:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
     <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.375" customWidth="1"/>
+    <col min="4" max="4" width="52.75" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.375" customWidth="1"/>
+    <col min="8" max="8" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="43" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="G19" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACA5EC8-F569-0C42-8490-31F3C0AF8C48}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/AWSテンプレートパラメータ一覧.xlsx
+++ b/AWSテンプレートパラメータ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaname/Git/aws-web-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3DEDA-ABCD-2647-BAAB-C080DDEE19B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DA73B6-49B6-BA48-973B-CEB142EC5EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="1500" windowWidth="28360" windowHeight="17440" xr2:uid="{5361B62B-196A-BA43-8E79-E9C87F00E736}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
   <si>
     <t>VPC</t>
     <phoneticPr fontId="1"/>
@@ -359,6 +359,14 @@
   </si>
   <si>
     <t>${System}-eip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PrivateSubnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -739,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08661CF6-308E-274A-A750-6564D9ED6300}">
-  <dimension ref="B9:H53"/>
+  <dimension ref="B9:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -928,130 +936,177 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="43" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
+    <row r="33" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>12</v>
       </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="H34" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -1072,132 +1127,195 @@
     </row>
     <row r="39" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
         <v>35</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G46" t="s">
         <v>52</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
+    <row r="50" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
+    <row r="51" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F51" t="s">
         <v>12</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>3</v>
       </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
         <v>29</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
+    <row r="56" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+    <row r="57" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E57" t="s">
         <v>11</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F57" t="s">
         <v>12</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
         <v>30</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>32</v>
       </c>
     </row>

--- a/AWSテンプレートパラメータ一覧.xlsx
+++ b/AWSテンプレートパラメータ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaname/Git/aws-web-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DA73B6-49B6-BA48-973B-CEB142EC5EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0355582C-5286-BA4D-AE6B-B7779FF77017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="1500" windowWidth="28360" windowHeight="17440" xr2:uid="{5361B62B-196A-BA43-8E79-E9C87F00E736}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
   <si>
     <t>VPC</t>
     <phoneticPr fontId="1"/>
@@ -180,29 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Elastic IP ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AllocationIdで取得したEIPのID</t>
-    <rPh sb="13" eb="15">
-      <t>シュトｋウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Elastic IP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルートテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tempalte-rtb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tempalte-sg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,10 +198,6 @@
     <rPh sb="18" eb="20">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セキュリティグループ（ネットワーク用）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -358,15 +331,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${System}-eip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PrivateSubnet</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>private</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CloudFormation テンプレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティグループ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -374,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -387,6 +364,13 @@
       <name val="Ricty Diminished"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Ricty Diminished"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08661CF6-308E-274A-A750-6564D9ED6300}">
-  <dimension ref="B9:H60"/>
+  <dimension ref="B6:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -764,6 +751,11 @@
     <col min="8" max="8" width="71" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="2:8" ht="35" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
@@ -774,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -786,27 +778,27 @@
         <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -814,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -828,7 +820,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -838,50 +830,50 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="43" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -890,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -907,16 +899,16 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -924,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -938,7 +930,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -948,50 +940,50 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="43" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -1000,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1017,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
@@ -1034,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1064,259 +1056,158 @@
         <v>6</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="43" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>6</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>54</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="F46" t="s">
-        <v>35</v>
-      </c>
       <c r="G46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
